--- a/plot assignment/data/Sova Mains.xlsx
+++ b/plot assignment/data/Sova Mains.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tina\Documents\GitHub\dpm-assignments\plot assignment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tina\Documents\GitHub\dpm-assignments\plot assignment\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD4301F-302A-4821-A087-6B999EDCFA74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C12DA61B-0960-406D-89CA-4154D5B7D21D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="20910" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="20910" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sova1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="20">
   <si>
     <t>ID</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>Assists</t>
-  </si>
-  <si>
-    <t>Combat Score</t>
   </si>
   <si>
     <t>W</t>
@@ -59,9 +56,6 @@
   </si>
   <si>
     <t>J</t>
-  </si>
-  <si>
-    <t>Runden gespielt</t>
   </si>
   <si>
     <t>Haven</t>
@@ -86,6 +80,12 @@
   </si>
   <si>
     <t>Win/Lose</t>
+  </si>
+  <si>
+    <t>Rounds</t>
+  </si>
+  <si>
+    <t>Combatscore</t>
   </si>
 </sst>
 </file>
@@ -404,34 +404,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="15.85546875" customWidth="1"/>
     <col min="6" max="6" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -443,654 +443,788 @@
         <v>3</v>
       </c>
       <c r="I1" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1">
-        <v>45262</v>
+        <v>45289</v>
       </c>
       <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>24</v>
+      </c>
+      <c r="G2">
         <v>15</v>
       </c>
-      <c r="D2">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2">
-        <v>10</v>
-      </c>
-      <c r="G2">
-        <v>10</v>
-      </c>
       <c r="H2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I2">
-        <v>173</v>
-      </c>
-      <c r="J2" t="s">
-        <v>14</v>
+        <v>308</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1">
-        <v>45261</v>
+        <v>45289</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
       </c>
       <c r="F3">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I3">
-        <v>215</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1">
-        <v>45261</v>
+        <v>45289</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F4">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G4">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I4">
-        <v>274</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1">
-        <v>45261</v>
+        <v>45289</v>
       </c>
       <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>14</v>
+      </c>
+      <c r="G5">
         <v>15</v>
       </c>
-      <c r="D5">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="H5">
         <v>6</v>
       </c>
-      <c r="F5">
-        <v>13</v>
-      </c>
-      <c r="G5">
-        <v>13</v>
-      </c>
-      <c r="H5">
-        <v>4</v>
-      </c>
       <c r="I5">
-        <v>224</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1">
-        <v>45256</v>
+        <v>45289</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D6">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F6">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="G6">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>120</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1">
-        <v>45256</v>
+        <v>45284</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D7">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F7">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G7">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H7">
         <v>8</v>
       </c>
       <c r="I7">
-        <v>163</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>45284</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>30</v>
+      </c>
+      <c r="G8">
+        <v>13</v>
+      </c>
+      <c r="H8">
         <v>8</v>
       </c>
-      <c r="B8" s="1">
-        <v>45280</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8">
-        <v>24</v>
-      </c>
-      <c r="E8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8">
-        <v>21</v>
-      </c>
-      <c r="G8">
-        <v>17</v>
-      </c>
-      <c r="H8">
-        <v>9</v>
-      </c>
       <c r="I8">
-        <v>248</v>
+        <v>379</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>45281</v>
+        <v>45284</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D9">
         <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F9">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G9">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I9">
-        <v>170</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1">
-        <v>45282</v>
+        <v>45283</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
       </c>
       <c r="D10">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E10" t="s">
         <v>5</v>
       </c>
       <c r="F10">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G10">
         <v>14</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I10">
-        <v>174</v>
+        <v>306</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="1">
         <v>45283</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D11">
+        <v>26</v>
+      </c>
+      <c r="E11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11">
         <v>18</v>
       </c>
-      <c r="E11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11">
+      <c r="G11">
         <v>20</v>
       </c>
-      <c r="G11">
-        <v>14</v>
-      </c>
       <c r="H11">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I11">
-        <v>306</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" s="1">
         <v>45283</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D12">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F12">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G12">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H12">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I12">
-        <v>212</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" s="1">
         <v>45283</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13">
         <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F13">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G13">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I13">
-        <v>161</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" s="1">
-        <v>45283</v>
+        <v>45282</v>
       </c>
       <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <v>24</v>
+      </c>
+      <c r="E14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14">
         <v>16</v>
       </c>
-      <c r="D14">
-        <v>23</v>
-      </c>
-      <c r="E14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14">
-        <v>18</v>
-      </c>
       <c r="G14">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>210</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" s="1">
-        <v>45284</v>
+        <v>45281</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D15">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E15" t="s">
         <v>5</v>
       </c>
       <c r="F15">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G15">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H15">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>226</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" s="1">
-        <v>45284</v>
+        <v>45280</v>
       </c>
       <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <v>24</v>
+      </c>
+      <c r="E16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <v>21</v>
+      </c>
+      <c r="G16">
+        <v>17</v>
+      </c>
+      <c r="H16">
+        <v>9</v>
+      </c>
+      <c r="I16">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="1">
+        <v>45262</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17">
+        <v>15</v>
+      </c>
+      <c r="E17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <v>10</v>
+      </c>
+      <c r="G17">
+        <v>10</v>
+      </c>
+      <c r="H17">
+        <v>5</v>
+      </c>
+      <c r="I17">
+        <v>173</v>
+      </c>
+      <c r="J17" t="s">
         <v>12</v>
       </c>
-      <c r="D16">
-        <v>22</v>
-      </c>
-      <c r="E16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16">
-        <v>30</v>
-      </c>
-      <c r="G16">
-        <v>13</v>
-      </c>
-      <c r="H16">
-        <v>8</v>
-      </c>
-      <c r="I16">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="1">
-        <v>45284</v>
-      </c>
-      <c r="C17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17">
-        <v>17</v>
-      </c>
-      <c r="E17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17">
-        <v>12</v>
-      </c>
-      <c r="G17">
-        <v>10</v>
-      </c>
-      <c r="H17">
-        <v>5</v>
-      </c>
-      <c r="I17">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18" s="1">
-        <v>45289</v>
+        <v>45261</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D18">
         <v>22</v>
       </c>
       <c r="E18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F18">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G18">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H18">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I18">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B19" s="1">
-        <v>45289</v>
+        <v>45261</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D19">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F19">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G19">
         <v>15</v>
       </c>
       <c r="H19">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I19">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="1">
+        <v>45261</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20">
+        <v>17</v>
+      </c>
+      <c r="E20" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20">
+        <v>13</v>
+      </c>
+      <c r="G20">
+        <v>13</v>
+      </c>
+      <c r="H20">
+        <v>4</v>
+      </c>
+      <c r="I20">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="1">
+        <v>45256</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21">
+        <v>18</v>
+      </c>
+      <c r="E21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21">
+        <v>7</v>
+      </c>
+      <c r="G21">
+        <v>13</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="1">
+        <v>45256</v>
+      </c>
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22">
+        <v>22</v>
+      </c>
+      <c r="E22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22">
+        <v>14</v>
+      </c>
+      <c r="G22">
+        <v>15</v>
+      </c>
+      <c r="H22">
         <v>8</v>
       </c>
-      <c r="B20" s="1">
-        <v>45289</v>
-      </c>
-      <c r="C20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20">
-        <v>24</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="I22">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="1">
+        <v>45255</v>
+      </c>
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23">
+        <v>19</v>
+      </c>
+      <c r="E23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23">
+        <v>18</v>
+      </c>
+      <c r="G23">
+        <v>10</v>
+      </c>
+      <c r="H23">
+        <v>5</v>
+      </c>
+      <c r="I23">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="1">
+        <v>45254</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24">
+        <v>19</v>
+      </c>
+      <c r="E24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24">
+        <v>12</v>
+      </c>
+      <c r="G24">
+        <v>12</v>
+      </c>
+      <c r="H24">
+        <v>3</v>
+      </c>
+      <c r="I24">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="1">
+        <v>45254</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25">
+        <v>26</v>
+      </c>
+      <c r="E25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25">
+        <v>20</v>
+      </c>
+      <c r="G25">
+        <v>16</v>
+      </c>
+      <c r="H25">
+        <v>5</v>
+      </c>
+      <c r="I25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="1">
+        <v>45247</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26">
+        <v>26</v>
+      </c>
+      <c r="E26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26">
+        <v>25</v>
+      </c>
+      <c r="G26">
+        <v>21</v>
+      </c>
+      <c r="H26">
         <v>6</v>
       </c>
-      <c r="F20">
-        <v>12</v>
-      </c>
-      <c r="G20">
-        <v>19</v>
-      </c>
-      <c r="H20">
-        <v>8</v>
-      </c>
-      <c r="I20">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="1">
-        <v>45289</v>
-      </c>
-      <c r="C21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21">
-        <v>24</v>
-      </c>
-      <c r="E21" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21">
-        <v>14</v>
-      </c>
-      <c r="G21">
-        <v>15</v>
-      </c>
-      <c r="H21">
-        <v>6</v>
-      </c>
-      <c r="I21">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="1">
-        <v>45289</v>
-      </c>
-      <c r="C22" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22">
-        <v>16</v>
-      </c>
-      <c r="E22" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22">
-        <v>16</v>
-      </c>
-      <c r="G22">
-        <v>7</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22">
-        <v>248</v>
-      </c>
+      <c r="I26">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="1"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J31">
+    <sortCondition descending="1" ref="B2:B31"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB3BF879-C4CD-4C90-90F0-FF757557EFE9}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -1102,21 +1236,21 @@
         <v>3</v>
       </c>
       <c r="I1" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1">
-        <v>45276</v>
+        <v>45299</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>21</v>
@@ -1125,549 +1259,549 @@
         <v>5</v>
       </c>
       <c r="F2">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G2">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I2">
-        <v>220</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1">
-        <v>45275</v>
+        <v>45290</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D3">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G3">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H3">
         <v>6</v>
       </c>
       <c r="I3">
-        <v>282</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1">
-        <v>45258</v>
+        <v>45287</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D4">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>7</v>
+      </c>
+      <c r="G4">
         <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4">
-        <v>20</v>
-      </c>
-      <c r="G4">
-        <v>10</v>
       </c>
       <c r="H4">
         <v>3</v>
       </c>
       <c r="I4">
-        <v>330</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1">
-        <v>45251</v>
+        <v>45287</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D5">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>17</v>
+      </c>
+      <c r="G5">
+        <v>16</v>
+      </c>
+      <c r="H5">
+        <v>7</v>
+      </c>
+      <c r="I5">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1">
+        <v>45279</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6">
         <v>19</v>
       </c>
-      <c r="E5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5">
-        <v>18</v>
-      </c>
-      <c r="G5">
-        <v>15</v>
-      </c>
-      <c r="H5">
-        <v>6</v>
-      </c>
-      <c r="I5">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1">
-        <v>45228</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6">
-        <v>21</v>
-      </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F6">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G6">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I6">
-        <v>232</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1">
-        <v>45224</v>
+        <v>45276</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D7">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F7">
         <v>17</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I7">
-        <v>264</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1">
-        <v>45279</v>
+        <v>45275</v>
       </c>
       <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8">
         <v>18</v>
       </c>
-      <c r="D8">
-        <v>19</v>
-      </c>
       <c r="E8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>18</v>
+      </c>
+      <c r="G8">
+        <v>9</v>
+      </c>
+      <c r="H8">
         <v>6</v>
       </c>
-      <c r="F8">
-        <v>14</v>
-      </c>
-      <c r="G8">
-        <v>14</v>
-      </c>
-      <c r="H8">
-        <v>5</v>
-      </c>
       <c r="I8">
-        <v>216</v>
+        <v>282</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1">
-        <v>45287</v>
+        <v>45258</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D9">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G9">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H9">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I9">
-        <v>245</v>
+        <v>330</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>45288</v>
+        <v>45251</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D10">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10">
         <v>18</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G10">
+        <v>15</v>
+      </c>
+      <c r="H10">
         <v>6</v>
       </c>
-      <c r="F10">
-        <v>7</v>
-      </c>
-      <c r="G10">
-        <v>17</v>
-      </c>
-      <c r="H10">
-        <v>3</v>
-      </c>
       <c r="I10">
-        <v>136</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>45290</v>
+        <v>45238</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D11">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F11">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G11">
         <v>17</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I11">
-        <v>184</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="1">
-        <v>44934</v>
+        <v>45228</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D12">
         <v>21</v>
       </c>
       <c r="E12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <v>16</v>
+      </c>
+      <c r="G12">
+        <v>16</v>
+      </c>
+      <c r="H12">
         <v>6</v>
       </c>
-      <c r="F12">
-        <v>15</v>
-      </c>
-      <c r="G12">
-        <v>18</v>
-      </c>
-      <c r="H12">
-        <v>3</v>
-      </c>
       <c r="I12">
-        <v>199</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="1">
-        <v>45275</v>
+        <v>45224</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D13">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F13">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H13">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I13">
-        <v>282</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="1">
-        <v>45258</v>
+        <v>45221</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D14">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F14">
         <v>20</v>
       </c>
       <c r="G14">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H14">
         <v>3</v>
       </c>
       <c r="I14">
-        <v>330</v>
+        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" s="1">
-        <v>45251</v>
+        <v>45219</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D15">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E15" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F15">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G15">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I15">
-        <v>280</v>
+        <v>320</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16" s="1">
-        <v>45228</v>
+        <v>45215</v>
       </c>
       <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <v>23</v>
+      </c>
+      <c r="E16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <v>10</v>
+      </c>
+      <c r="G16">
+        <v>17</v>
+      </c>
+      <c r="H16">
+        <v>9</v>
+      </c>
+      <c r="I16">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="1">
+        <v>45207</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17">
+        <v>24</v>
+      </c>
+      <c r="E17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <v>15</v>
+      </c>
+      <c r="G17">
+        <v>17</v>
+      </c>
+      <c r="H17">
+        <v>11</v>
+      </c>
+      <c r="I17">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="1">
+        <v>45199</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18">
+        <v>22</v>
+      </c>
+      <c r="E18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18">
+        <v>17</v>
+      </c>
+      <c r="G18">
+        <v>15</v>
+      </c>
+      <c r="H18">
         <v>12</v>
       </c>
-      <c r="D16">
+      <c r="I18">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="1">
+        <v>45197</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19">
         <v>21</v>
       </c>
-      <c r="E16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16">
+      <c r="E19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19">
         <v>16</v>
       </c>
-      <c r="G16">
+      <c r="G19">
+        <v>15</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
+      <c r="I19">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="1">
+        <v>45182</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>28</v>
+      </c>
+      <c r="E20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20">
+        <v>37</v>
+      </c>
+      <c r="G20">
+        <v>18</v>
+      </c>
+      <c r="H20">
+        <v>5</v>
+      </c>
+      <c r="I20">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="1">
+        <v>45180</v>
+      </c>
+      <c r="C21" t="s">
         <v>16</v>
-      </c>
-      <c r="H16">
-        <v>6</v>
-      </c>
-      <c r="I16">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="1">
-        <v>45224</v>
-      </c>
-      <c r="C17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17">
-        <v>17</v>
-      </c>
-      <c r="E17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17">
-        <v>17</v>
-      </c>
-      <c r="G17">
-        <v>10</v>
-      </c>
-      <c r="H17">
-        <v>3</v>
-      </c>
-      <c r="I17">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="1">
-        <v>45221</v>
-      </c>
-      <c r="C18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18">
-        <v>21</v>
-      </c>
-      <c r="E18" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18">
-        <v>20</v>
-      </c>
-      <c r="G18">
-        <v>13</v>
-      </c>
-      <c r="H18">
-        <v>3</v>
-      </c>
-      <c r="I18">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="1">
-        <v>45219</v>
-      </c>
-      <c r="C19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19">
-        <v>18</v>
-      </c>
-      <c r="E19" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19">
-        <v>21</v>
-      </c>
-      <c r="G19">
-        <v>13</v>
-      </c>
-      <c r="H19">
-        <v>5</v>
-      </c>
-      <c r="I19">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="1">
-        <v>45215</v>
-      </c>
-      <c r="C20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20">
-        <v>23</v>
-      </c>
-      <c r="E20" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20">
-        <v>10</v>
-      </c>
-      <c r="G20">
-        <v>17</v>
-      </c>
-      <c r="H20">
-        <v>9</v>
-      </c>
-      <c r="I20">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="1">
-        <v>45207</v>
-      </c>
-      <c r="C21" t="s">
-        <v>18</v>
       </c>
       <c r="D21">
         <v>24</v>
@@ -1676,48 +1810,185 @@
         <v>5</v>
       </c>
       <c r="F21">
+        <v>24</v>
+      </c>
+      <c r="G21">
+        <v>21</v>
+      </c>
+      <c r="H21">
+        <v>8</v>
+      </c>
+      <c r="I21">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="1">
+        <v>45180</v>
+      </c>
+      <c r="C22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22">
+        <v>28</v>
+      </c>
+      <c r="E22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22">
+        <v>35</v>
+      </c>
+      <c r="G22">
+        <v>20</v>
+      </c>
+      <c r="H22">
+        <v>4</v>
+      </c>
+      <c r="I22">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="1">
+        <v>45174</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23">
+        <v>24</v>
+      </c>
+      <c r="E23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23">
+        <v>17</v>
+      </c>
+      <c r="G23">
         <v>15</v>
       </c>
-      <c r="G21">
+      <c r="H23">
+        <v>8</v>
+      </c>
+      <c r="I23">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="1">
+        <v>45173</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24">
+        <v>28</v>
+      </c>
+      <c r="E24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24">
+        <v>26</v>
+      </c>
+      <c r="G24">
+        <v>18</v>
+      </c>
+      <c r="H24">
+        <v>5</v>
+      </c>
+      <c r="I24">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="1">
+        <v>45173</v>
+      </c>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25">
+        <v>5</v>
+      </c>
+      <c r="E25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>212</v>
+      </c>
+      <c r="J25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="1">
+        <v>45177</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26">
+        <v>23</v>
+      </c>
+      <c r="E26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26">
+        <v>22</v>
+      </c>
+      <c r="G26">
         <v>17</v>
       </c>
-      <c r="H21">
-        <v>11</v>
-      </c>
-      <c r="I21">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="1">
-        <v>45199</v>
-      </c>
-      <c r="C22" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22">
-        <v>22</v>
-      </c>
-      <c r="E22" t="s">
-        <v>6</v>
-      </c>
-      <c r="F22">
-        <v>17</v>
-      </c>
-      <c r="G22">
-        <v>15</v>
-      </c>
-      <c r="H22">
-        <v>12</v>
-      </c>
-      <c r="I22">
-        <v>253</v>
-      </c>
+      <c r="H26">
+        <v>7</v>
+      </c>
+      <c r="I26">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="1"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:J32">
+    <sortCondition descending="1" ref="A4:A32"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>